--- a/HomeLoanDataRetrieved.xlsx
+++ b/HomeLoanDataRetrieved.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3292" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4526" uniqueCount="302">
   <si>
     <t>Year</t>
   </si>
@@ -941,13 +941,303 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="127" x14ac:knownFonts="1">
+  <fonts count="185" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="9"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1610,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="185">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
@@ -1738,6 +2028,64 @@
     <xf numFmtId="0" fontId="124" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="125" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="126" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="127" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="128" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="129" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="130" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="131" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="132" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="133" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="134" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="135" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="136" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="137" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="138" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="139" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="140" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="141" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="142" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="143" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="144" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="145" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="146" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="147" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="148" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="149" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="150" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="151" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="152" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="153" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="154" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="155" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="156" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="157" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="158" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="159" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="160" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="161" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="162" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="163" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="164" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="165" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="166" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="167" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="168" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="169" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="170" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="171" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="172" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="173" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="174" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="175" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="176" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="177" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="178" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="179" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="180" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="181" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="182" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="183" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="184" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2025,25 +2373,25 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="120">
+      <c r="A1" t="s" s="178">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="121">
+      <c r="B1" t="s" s="179">
         <v>1</v>
       </c>
-      <c r="C1" t="s" s="122">
+      <c r="C1" t="s" s="180">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="123">
+      <c r="D1" t="s" s="181">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="124">
+      <c r="E1" t="s" s="182">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="125">
+      <c r="F1" t="s" s="183">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="126">
+      <c r="G1" t="s" s="184">
         <v>6</v>
       </c>
     </row>
